--- a/SMT接驳台中控报警系统配置清单.xlsx
+++ b/SMT接驳台中控报警系统配置清单.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -690,7 +690,7 @@
     <row r="13" spans="2:7" ht="29.25" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>

--- a/SMT接驳台中控报警系统配置清单.xlsx
+++ b/SMT接驳台中控报警系统配置清单.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -690,7 +690,7 @@
     <row r="13" spans="2:7" ht="29.25" customHeight="1">
       <c r="B13" s="4"/>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
